--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2588255.603098533</v>
+        <v>2583869.590194796</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205919</v>
+        <v>9964927.035287913</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431051</v>
+        <v>430763.7823717247</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9357036.226895338</v>
+        <v>9357187.960308043</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>308.4393196652583</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>234.5963544391282</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.67884460201108</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>191.5139908715583</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>368.2150860787535</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -952,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>21.78258997919009</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>85.69522927036891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>61.25857096546699</v>
+        <v>62.71174199726678</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>162.5776147681367</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081957</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223838</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>144.8794374180148</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>161.8735717861348</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
         <v>283.5630920045443</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081956</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,16 +2007,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2159827884897777</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2058,13 +2058,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>195.5536557553796</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127575</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
         <v>283.5630920045443</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081957</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374736</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>118.6832363363294</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>64.44601915223838</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2532,19 +2532,19 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U25" t="n">
-        <v>260.1908237563526</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>88.99308360679437</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5420528771669</v>
@@ -2733,7 +2733,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>105.3305177187436</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2772,10 +2772,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,10 +2967,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>60.04218327937818</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.56117515190631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>152.0073203384154</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784681</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3483,7 +3483,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>96.82965753679868</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>33.45851626257556</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901118502</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584589</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
         <v>188.3907690366107</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>125.6497826179104</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>127.7231134750749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108344</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584589</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3957,7 +3957,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950980709</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>98.99704524587881</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>929.9497309636281</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>518.9638261740206</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2010.34223224997</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2010.34223224997</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X2" t="n">
-        <v>2010.34223224997</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y2" t="n">
-        <v>1620.202900274159</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4424,10 +4424,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="X4" t="n">
-        <v>320.3920853967602</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>65.73979454966857</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>913.7382812066351</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="C5" t="n">
-        <v>913.7382812066351</v>
+        <v>1176.876864157142</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>818.6111655503914</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>432.8229129521472</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>425.8774122029437</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2026.572534801951</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>1673.803879531837</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1300.338121270757</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1300.338121270757</v>
+        <v>1563.476704221264</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>249.7161456655658</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C7" t="n">
-        <v>249.7161456655658</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124031</v>
+        <v>718.2396502532528</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124031</v>
+        <v>428.8224802162921</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124031</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y7" t="n">
-        <v>249.7161456655658</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1229.941371236149</v>
+        <v>858.4397953655689</v>
       </c>
       <c r="C8" t="n">
-        <v>860.9788542957374</v>
+        <v>489.4772784251572</v>
       </c>
       <c r="D8" t="n">
-        <v>860.9788542957374</v>
+        <v>131.2115798184067</v>
       </c>
       <c r="E8" t="n">
-        <v>860.9788542957374</v>
+        <v>131.2115798184067</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>1993.546461473041</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>1993.546461473041</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.080703211961</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.941371236149</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.1627947174723</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5029,7 +5029,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5044,25 +5044,25 @@
         <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
@@ -5077,7 +5077,7 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
         <v>3468.466124132384</v>
@@ -5086,7 +5086,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L12" t="n">
-        <v>572.0050724668117</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M12" t="n">
-        <v>1164.023426718939</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>783.7476391326353</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>614.8114562047284</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>464.6948167923927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E13" t="n">
-        <v>464.6948167923927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F13" t="n">
-        <v>464.6948167923927</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G13" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H13" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5202,49 +5202,49 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117312</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L13" t="n">
-        <v>820.2210160948655</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139325</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931032</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946061</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.699365782266</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335701</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.412499335701</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.242309074631</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2026.563526789013</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1737.48731310374</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1482.802824897853</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1193.385654860892</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>965.396103962875</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>965.396103962875</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5266,16 +5266,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
         <v>424.14374500152</v>
@@ -5311,19 +5311,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>915.089423558717</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>1507.107777810845</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N15" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O15" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>943.8778449891475</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>780.3691866193144</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>780.3691866193144</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>632.4560930369213</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5478,10 +5478,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>1125.526309819387</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>1125.526309819387</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
@@ -5503,7 +5503,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5515,10 +5515,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5600,10 +5600,10 @@
         <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>572.0050724668117</v>
+        <v>764.7727330321219</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849133</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N18" t="n">
         <v>1356.791087284249</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>784.5128849845607</v>
+        <v>654.5023284669179</v>
       </c>
       <c r="C19" t="n">
-        <v>615.5767020566539</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D19" t="n">
-        <v>465.4600626443181</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E19" t="n">
-        <v>465.2418982115001</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F19" t="n">
-        <v>318.3519507135898</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G19" t="n">
         <v>318.3519507135898</v>
@@ -5697,28 +5697,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1829.034581581553</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1574.350093375666</v>
       </c>
       <c r="W19" t="n">
-        <v>1414.943479856348</v>
+        <v>1284.932923338705</v>
       </c>
       <c r="X19" t="n">
-        <v>1186.953928958331</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y19" t="n">
-        <v>966.1613498148005</v>
+        <v>836.1507932971576</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5740,10 +5740,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5758,22 +5758,22 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5785,19 +5785,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>242.5353624779755</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>242.5353624779755</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L21" t="n">
-        <v>373.2380436180325</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M21" t="n">
-        <v>965.2563978701601</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N21" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O21" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3232.463893683763</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>3063.527710755856</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>2913.411071343521</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E22" t="n">
-        <v>2765.497977761127</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F22" t="n">
-        <v>2618.608030263217</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G22" t="n">
-        <v>2498.725973357834</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H22" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>4441.387872277784</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>4152.311658592511</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>4152.311658592511</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>3862.89448855555</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>3634.904937657533</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>3414.112358514003</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5995,7 +5995,7 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
         <v>2234.298471234015</v>
@@ -6068,22 +6068,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>424.3570907149658</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L24" t="n">
-        <v>424.3570907149658</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.375444967093</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N24" t="n">
-        <v>1638.471408366429</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
-        <v>2185.347883366624</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P24" t="n">
         <v>2323.25108071052</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1099.422008959557</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>930.4858260316502</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>780.3691866193144</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>632.4560930369213</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F25" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1763.744512893701</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1509.060024687814</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1509.060024687814</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1281.070473789797</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>1281.070473789797</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
@@ -6305,25 +6305,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034529</v>
+        <v>144.0153224630501</v>
       </c>
       <c r="K27" t="n">
-        <v>241.4963299034529</v>
+        <v>474.5240650264088</v>
       </c>
       <c r="L27" t="n">
-        <v>241.4963299034529</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="M27" t="n">
-        <v>833.5146841555804</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N27" t="n">
-        <v>1455.610647554917</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O27" t="n">
-        <v>2002.487122555111</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1039.197373190448</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C28" t="n">
-        <v>870.261190262541</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D28" t="n">
-        <v>780.3691866193144</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E28" t="n">
-        <v>632.4560930369213</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F28" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G28" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
         <v>93.84834815160703</v>
@@ -6411,25 +6411,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062235</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V28" t="n">
-        <v>1669.627968062235</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W28" t="n">
-        <v>1669.627968062235</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X28" t="n">
-        <v>1441.638417164218</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y28" t="n">
-        <v>1220.845838020688</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6451,10 +6451,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6481,7 +6481,7 @@
         <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
         <v>4566.333620403613</v>
@@ -6508,7 +6508,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>241.4963299034529</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>699.3689196510031</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N30" t="n">
-        <v>1321.464883050339</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050533</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>930.4858260316502</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C31" t="n">
-        <v>930.4858260316502</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D31" t="n">
-        <v>780.3691866193144</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E31" t="n">
-        <v>632.4560930369213</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F31" t="n">
-        <v>485.566145539011</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6633,40 +6633,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931021</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946051</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782255</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S31" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T31" t="n">
-        <v>2026.563526789007</v>
+        <v>2117.734294053952</v>
       </c>
       <c r="U31" t="n">
-        <v>1737.487313103734</v>
+        <v>1828.658080368679</v>
       </c>
       <c r="V31" t="n">
-        <v>1482.802824897847</v>
+        <v>1573.973592162792</v>
       </c>
       <c r="W31" t="n">
-        <v>1193.385654860886</v>
+        <v>1284.556422125831</v>
       </c>
       <c r="X31" t="n">
-        <v>965.3961039628687</v>
+        <v>1056.566871227814</v>
       </c>
       <c r="Y31" t="n">
-        <v>930.4858260316502</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="32">
@@ -6709,10 +6709,10 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
         <v>3654.445485610258</v>
@@ -6782,22 +6782,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>732.2286627472042</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>1281.571598885108</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N33" t="n">
-        <v>1903.667562284444</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O33" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>943.8778449891475</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>774.9416620612407</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D34" t="n">
-        <v>624.8250226489049</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E34" t="n">
-        <v>476.9119290665118</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F34" t="n">
-        <v>330.0219815686014</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G34" t="n">
-        <v>176.4792337520202</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6900,10 +6900,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1125.526309819387</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>1125.526309819387</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6925,58 +6925,58 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507205</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
         <v>3095.000365871304</v>
@@ -7010,31 +7010,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034533</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668126</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310565</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>1062.737405310565</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N36" t="n">
-        <v>1356.791087284247</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.791123359144</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>847.854940431237</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>697.7383010189012</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>549.8252074365081</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F37" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G37" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>2361.553154294199</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>2141.87437200858</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>1852.798158323307</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>1754.990423437652</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1465.573253400691</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>1237.583702502674</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>1016.791123359144</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H38" t="n">
         <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294971</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234009</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7229,61 +7229,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K39" t="n">
-        <v>198.820911789225</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L39" t="n">
-        <v>689.553244632977</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M39" t="n">
-        <v>1281.571598885105</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N39" t="n">
-        <v>1903.667562284443</v>
+        <v>2276.851722962018</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
         <v>2016.877442379908</v>
@@ -7295,7 +7295,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
         <v>1111.876178449477</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>930.48582603165</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C40" t="n">
-        <v>930.48582603165</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D40" t="n">
-        <v>780.3691866193143</v>
+        <v>176.0428926073495</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369212</v>
+        <v>176.0428926073495</v>
       </c>
       <c r="F40" t="n">
-        <v>485.5661455390108</v>
+        <v>176.0428926073495</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T40" t="n">
-        <v>2246.242309074627</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U40" t="n">
-        <v>1957.166095389354</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V40" t="n">
-        <v>1702.481607183467</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W40" t="n">
-        <v>1413.064437146506</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.074886248489</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.2823071049587</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="41">
@@ -7402,43 +7402,43 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127636</v>
       </c>
       <c r="H41" t="n">
+        <v>93.84834815160777</v>
+      </c>
+      <c r="I41" t="n">
         <v>93.84834815160706</v>
       </c>
-      <c r="I41" t="n">
-        <v>93.84834815160703</v>
-      </c>
       <c r="J41" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287892195</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944179</v>
+        <v>1513.293909294992</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883217</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800325</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259464</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7466,61 +7466,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149663</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="L42" t="n">
-        <v>915.0894235587183</v>
+        <v>142.6767696327952</v>
       </c>
       <c r="M42" t="n">
-        <v>1507.107777810847</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N42" t="n">
-        <v>1903.667562284443</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
         <v>2016.877442379908</v>
@@ -7532,7 +7532,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.876178449477</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3194.433576228384</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="C43" t="n">
-        <v>3025.497393300478</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="D43" t="n">
-        <v>3025.497393300478</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="E43" t="n">
-        <v>2877.584299718084</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F43" t="n">
-        <v>2748.571053783665</v>
+        <v>402.9352599385979</v>
       </c>
       <c r="G43" t="n">
-        <v>2581.356858958244</v>
+        <v>235.7210651131767</v>
       </c>
       <c r="H43" t="n">
-        <v>2439.484141996675</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I43" t="n">
-        <v>2356.853256396262</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>2435.835379285816</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K43" t="n">
-        <v>2695.46410625638</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L43" t="n">
-        <v>3083.225924339514</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M43" t="n">
-        <v>3502.455516383974</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N43" t="n">
-        <v>3917.151382175681</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O43" t="n">
-        <v>4284.173839190711</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P43" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q43" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R43" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S43" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T43" t="n">
-        <v>4221.709089992166</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U43" t="n">
-        <v>3932.632876306893</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V43" t="n">
-        <v>3932.632876306893</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W43" t="n">
-        <v>3643.215706269932</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X43" t="n">
-        <v>3415.226155371915</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y43" t="n">
-        <v>3194.433576228384</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.807711655511</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715099</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108349</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510105</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>793.805338720497</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160774</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148068</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112159</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2234.298471234026</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798343</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.297413955891</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596214</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.28428657842</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570209</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226638</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956524</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695444</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3082.755232797424</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>2908.302203516297</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>2759.367793855045</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>2600.13033884959</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>2453.595780876475</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>2317.837114922383</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>2233.172782567549</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.172782567549</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J45" t="n">
-        <v>2382.819425095204</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.744197266424</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.069803482183</v>
+        <v>584.5806809953565</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.448291108735</v>
+        <v>1176.599035247482</v>
       </c>
       <c r="N45" t="n">
-        <v>4437.046254663342</v>
+        <v>1798.694998646816</v>
       </c>
       <c r="O45" t="n">
-        <v>4459.155747205468</v>
+        <v>2345.571473647008</v>
       </c>
       <c r="P45" t="n">
-        <v>4459.155747205468</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q45" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R45" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>4574.206621482964</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>4383.999915204738</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>4155.971833747923</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>3920.81972551618</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>3666.582368787978</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>3458.730868582446</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>3250.970569817492</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.874836741724</v>
+        <v>562.9550599890908</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9386538138172</v>
+        <v>394.018877061184</v>
       </c>
       <c r="D46" t="n">
-        <v>422.8220144014814</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>422.8220144014814</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>275.932066903571</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9350515036934</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834098</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014445</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683896</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.949064936298</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.094230591203</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.492765614144</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.417538958342</v>
+        <v>1737.487313103726</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.733050752455</v>
+        <v>1482.802824897839</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.315880715494</v>
+        <v>1193.385654860878</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.315880715494</v>
+        <v>965.3961039628607</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.5233015719638</v>
+        <v>744.6035248193306</v>
       </c>
     </row>
   </sheetData>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909113</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10129,10 +10129,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10357,13 +10357,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10597,13 +10597,13 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>51.31264782908249</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>51.31264782911234</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>51.31264782908249</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>51.31264782911217</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>84.16945386597398</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>20.66261545915211</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.373249312493044</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.2179798580794</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>90.63179579304079</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>46.85881654083751</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440903</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>80.97502887069287</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>25.99462779206777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.62238941141798</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>76.00797063971532</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>157.4398111833836</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>184.0234782001885</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>13.53473253875154</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.3384883584589</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>155.3079857870293</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>146.3734639193617</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>84.16945386598191</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>54.18219756402691</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>17.69793454785639</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>143.3016600672316</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>66.52709304639004</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791500.2956299412</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>791500.2956299412</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791500.2956299412</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>791500.2956299412</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791500.2956299412</v>
+        <v>791500.2956299408</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>791237.5424528423</v>
+        <v>791500.295629941</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448199</v>
@@ -26322,40 +26322,40 @@
         <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
-        <v>625179.3072668836</v>
+        <v>625179.3072668831</v>
       </c>
       <c r="F2" t="n">
         <v>625179.3072668833</v>
       </c>
       <c r="G2" t="n">
-        <v>625179.3072668834</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="H2" t="n">
-        <v>625179.3072668836</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="I2" t="n">
         <v>625179.3072668833</v>
       </c>
       <c r="J2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668832</v>
       </c>
       <c r="K2" t="n">
+        <v>625179.3072668831</v>
+      </c>
+      <c r="L2" t="n">
         <v>625179.3072668832</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625179.3072668837</v>
       </c>
       <c r="M2" t="n">
         <v>625179.3072668833</v>
       </c>
       <c r="N2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668831</v>
       </c>
       <c r="O2" t="n">
-        <v>625179.3072668832</v>
+        <v>625179.3072668829</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.614759755</v>
+        <v>625179.307266883</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545121</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,16 +26398,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901383</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-1.158599498351881e-09</v>
       </c>
       <c r="O3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574951876</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855225</v>
+        <v>5781.971894855116</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855118</v>
+        <v>5781.971894855165</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855158</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855131</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855128</v>
+        <v>5781.971894855129</v>
       </c>
       <c r="J4" t="n">
         <v>5781.971894855114</v>
       </c>
       <c r="K4" t="n">
-        <v>5781.971894855182</v>
+        <v>5781.971894855064</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855118</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855039</v>
+        <v>5781.97189485509</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855002</v>
+        <v>5781.971894855411</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894854997</v>
+        <v>5781.971894855414</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855411</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26502,16 +26502,16 @@
         <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237584.0915608657</v>
+        <v>-237584.0915608658</v>
       </c>
       <c r="C6" t="n">
         <v>352383.7876536789</v>
@@ -26530,40 +26530,40 @@
         <v>352383.7876536784</v>
       </c>
       <c r="E6" t="n">
-        <v>-418042.3695397223</v>
+        <v>-418401.3393583659</v>
       </c>
       <c r="F6" t="n">
-        <v>518467.2959147897</v>
+        <v>518108.3260961465</v>
       </c>
       <c r="G6" t="n">
-        <v>518467.2959147898</v>
+        <v>518108.3260961465</v>
       </c>
       <c r="H6" t="n">
-        <v>518467.2959147899</v>
+        <v>518108.3260961465</v>
       </c>
       <c r="I6" t="n">
-        <v>518467.2959147897</v>
+        <v>518108.3260961465</v>
       </c>
       <c r="J6" t="n">
-        <v>342044.0767221967</v>
+        <v>341685.1069035535</v>
       </c>
       <c r="K6" t="n">
-        <v>518467.2959147895</v>
+        <v>518108.3260961464</v>
       </c>
       <c r="L6" t="n">
-        <v>518467.29591479</v>
+        <v>518108.3260961464</v>
       </c>
       <c r="M6" t="n">
-        <v>394160.0845246515</v>
+        <v>393801.1147060093</v>
       </c>
       <c r="N6" t="n">
-        <v>518467.2959147897</v>
+        <v>518108.3260961489</v>
       </c>
       <c r="O6" t="n">
-        <v>518467.2959147896</v>
+        <v>518108.3260961458</v>
       </c>
       <c r="P6" t="n">
-        <v>512712.2790804629</v>
+        <v>518108.326096146</v>
       </c>
     </row>
   </sheetData>
@@ -26694,16 +26694,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26770,16 +26770,16 @@
         <v>1358.041048716386</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716387</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.2973844992989</v>
+        <v>980.297384499299</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,16 +26992,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-3.004452048579918e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625286783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>105.3448503555367</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>93.15590403100671</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>168.1531355799262</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>34.1956645174788</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>45.56908394204152</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>305.9696684909448</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>242.3472027101784</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>132.8894240817259</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>345.6174747762444</v>
+        <v>344.1643037444446</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>4.732187490914185</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28140,13 +28140,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28155,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28274,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.711441248906058e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28815,10 +28815,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,16 +28851,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29580,7 +29580,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-4.938527139227503e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31840,28 +31840,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>348.1857632660258</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>326.0565207351617</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32077,7 +32077,7 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32086,10 +32086,10 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>439.1579551075602</v>
       </c>
       <c r="N15" t="n">
-        <v>212.396846890052</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
@@ -32098,7 +32098,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32320,13 +32320,13 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>333.2691884317027</v>
       </c>
       <c r="M18" t="n">
-        <v>306.467419192828</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426204</v>
@@ -32548,16 +32548,16 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>270.577290022356</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504301</v>
@@ -32572,7 +32572,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,25 +32788,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>164.214510350927</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>273.2705663475585</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
         <v>372.8719498286952</v>
@@ -33025,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>177.5113380923668</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927637</v>
@@ -33043,10 +33043,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>457.9784055511068</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33265,28 +33265,28 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>604.6315993235842</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.2575834086216</v>
@@ -33502,25 +33502,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>697.0258886067691</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735821</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>428.3656332688715</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426213</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P36" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H37" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R37" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687407</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687533</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K39" t="n">
-        <v>243.8743315376095</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745732</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>189.464282574245</v>
       </c>
       <c r="P39" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265026</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687407</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830438</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687533</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088193</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>176.1592645264527</v>
       </c>
       <c r="K42" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N42" t="n">
-        <v>531.9071509455513</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P42" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286956</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862166</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265026</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O45" t="n">
-        <v>164.9290651940673</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>344.3187317060057</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35257,19 +35257,19 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L11" t="n">
         <v>625.777556066439</v>
@@ -35433,7 +35433,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>210.3443242916669</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>194.7148086518283</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
-        <v>262.2512393642124</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L13" t="n">
         <v>391.678604124378</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898113</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35734,10 +35734,10 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>297.0239211855419</v>
       </c>
       <c r="N15" t="n">
-        <v>81.0551348067187</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
@@ -35746,7 +35746,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M17" t="n">
         <v>728.287436302058</v>
@@ -35968,13 +35968,13 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>194.7148086518285</v>
       </c>
       <c r="M18" t="n">
-        <v>164.3333852708097</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>552.400479798176</v>
@@ -36126,7 +36126,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
         <v>728.287436302058</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>132.0229102424818</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284117</v>
@@ -36220,7 +36220,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955309</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>779.60008413115</v>
       </c>
       <c r="N23" t="n">
         <v>744.7323009263698</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>32.87279826759372</v>
       </c>
       <c r="O24" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>139.2961589332282</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
         <v>232.8901757426737</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>50.67371142570007</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094305</v>
@@ -36691,10 +36691,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>324.0039981367765</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,10 +36849,10 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845841</v>
@@ -36913,28 +36913,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>462.4975654015659</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209122</v>
       </c>
       <c r="O31" t="n">
         <v>370.7297545606359</v>
@@ -37077,13 +37077,13 @@
         <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>779.6000841311491</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
         <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P32" t="n">
         <v>553.8443926134828</v>
@@ -37150,25 +37150,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>554.8918546847508</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.732300926371</v>
+        <v>796.0449487554617</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>605.1570404425662</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069154</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>297.0239211855382</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981769</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664402</v>
+        <v>677.0902038955487</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N38" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K39" t="n">
-        <v>106.0328925632505</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L39" t="n">
-        <v>495.689225094699</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>46.86803812980056</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931362</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380633</v>
+        <v>525.6867728671726</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664402</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020592</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P41" t="n">
-        <v>605.1570404425662</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>49.32163785978599</v>
       </c>
       <c r="K42" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N42" t="n">
-        <v>400.5654388622179</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426741</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243784</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931362</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>779.6000841311674</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O45" t="n">
-        <v>22.33282074962288</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>210.3443242916754</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2583869.590194796</v>
+        <v>2585688.861885837</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287913</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717247</v>
+        <v>430763.7823717232</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9357187.960308043</v>
+        <v>9357187.960308045</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>132.3849408889323</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>308.4393196652583</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.67884460201108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>56.88196987815829</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>368.2150860787535</v>
+        <v>401.3550844723776</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="V7" t="n">
-        <v>9.790440613649634</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>62.71174199726678</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>43.31785343913975</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>101.1597060168705</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>64.44601915223838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891228</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>76.61502530558695</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>195.5536557553796</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>13.13925136339851</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>64.44601915223838</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>105.3305177187436</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2730,7 +2730,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>105.3305177187436</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2961,10 +2961,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1854574632515</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>60.04218327937818</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901118887</v>
       </c>
       <c r="H37" t="n">
-        <v>64.44601915223835</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>81.37259901118502</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
         <v>188.3907690366107</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.6497826179104</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3915,10 +3915,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.1807515910839</v>
+        <v>7.558362179665605</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3957,10 +3957,10 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
         <v>188.3907690366107</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>5.313812950980709</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1315.737983561872</v>
+        <v>766.0404291903644</v>
       </c>
       <c r="C2" t="n">
-        <v>1315.737983561872</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1315.737983561872</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>929.9497309636281</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>518.9638261740206</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625994</v>
+        <v>1152.640269254486</v>
       </c>
     </row>
     <row r="3">
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>286.5323736931987</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>286.5323736931987</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V4" t="n">
-        <v>286.5323736931987</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W4" t="n">
-        <v>286.5323736931987</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="X4" t="n">
-        <v>286.5323736931987</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.73979454966857</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1176.876864157142</v>
+        <v>2310.5492509541</v>
       </c>
       <c r="C5" t="n">
-        <v>1176.876864157142</v>
+        <v>1941.586734013689</v>
       </c>
       <c r="D5" t="n">
-        <v>818.6111655503914</v>
+        <v>1583.321035406938</v>
       </c>
       <c r="E5" t="n">
-        <v>432.8229129521472</v>
+        <v>1197.532782808694</v>
       </c>
       <c r="F5" t="n">
-        <v>425.8774122029437</v>
+        <v>786.5468780190865</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.245359491378</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y5" t="n">
-        <v>1563.476704221264</v>
+        <v>2697.149091018222</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="V7" t="n">
-        <v>718.2396502532528</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W7" t="n">
-        <v>428.8224802162921</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>858.4397953655689</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>489.4772784251572</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>131.2115798184067</v>
+        <v>240.388315801204</v>
       </c>
       <c r="E8" t="n">
-        <v>131.2115798184067</v>
+        <v>240.388315801204</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>233.4428150520005</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>219.5194109905914</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2302.336936304455</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>1971.274048960885</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>1618.50539369077</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>1245.039635429691</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1245.039635429691</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>97.69838933464703</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4998,16 +4998,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G11" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H11" t="n">
         <v>93.84834815160703</v>
@@ -5041,7 +5041,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K11" t="n">
         <v>893.7741287892018</v>
@@ -5080,13 +5080,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K12" t="n">
-        <v>302.0892292003572</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>792.8215620441084</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N12" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.812354695766</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0957149476001</v>
+        <v>642.4220035901732</v>
       </c>
       <c r="C13" t="n">
-        <v>326.1595320196932</v>
+        <v>473.4858206622663</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0625429770282</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0625429770282</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5208,43 +5208,43 @@
         <v>820.2210160948589</v>
       </c>
       <c r="M13" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139315</v>
       </c>
       <c r="N13" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931022</v>
       </c>
       <c r="O13" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946052</v>
       </c>
       <c r="P13" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782256</v>
       </c>
       <c r="Q13" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335691</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074622</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789004</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.48731310373</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897843</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860883</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628655</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193353</v>
       </c>
     </row>
     <row r="14">
@@ -5278,25 +5278,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
         <v>4566.333620403613</v>
@@ -5305,7 +5305,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
@@ -5360,22 +5360,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668117</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310563</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M15" t="n">
-        <v>1356.791087284249</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5415,19 +5415,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D16" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E16" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F16" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G16" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H16" t="n">
         <v>93.84834815160703</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
         <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
@@ -5515,10 +5515,10 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507199</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
         <v>1513.293909294976</v>
@@ -5594,25 +5594,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L18" t="n">
-        <v>764.7727330321219</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M18" t="n">
-        <v>1356.791087284249</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.812354695766</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>654.5023284669179</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C19" t="n">
         <v>485.566145539011</v>
@@ -5706,19 +5706,19 @@
         <v>2026.563526789007</v>
       </c>
       <c r="U19" t="n">
-        <v>1829.034581581553</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V19" t="n">
-        <v>1574.350093375666</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.932923338705</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.943372440688</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y19" t="n">
-        <v>836.1507932971576</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5740,10 +5740,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5752,52 +5752,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015209</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="21">
@@ -5834,22 +5834,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L21" t="n">
-        <v>142.6767696327857</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849133</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284444</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>965.8040325357866</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>796.8678496078797</v>
       </c>
       <c r="D22" t="n">
-        <v>326.1595320196932</v>
+        <v>646.751210195544</v>
       </c>
       <c r="E22" t="n">
-        <v>326.1595320196932</v>
+        <v>498.8381166131509</v>
       </c>
       <c r="F22" t="n">
-        <v>326.1595320196932</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
-        <v>158.945337194272</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
@@ -5934,28 +5934,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>2140.336285650421</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1885.651797444534</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1596.234627407574</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>1368.245076509556</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>1147.452497366026</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5977,10 +5977,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5998,43 +5998,43 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>732.2286627472042</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>1324.247016999332</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284444</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P24" t="n">
         <v>2323.25108071052</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E25" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0625429770282</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6174,25 +6174,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="26">
@@ -6220,7 +6220,7 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
@@ -6235,16 +6235,16 @@
         <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
         <v>4566.333620403613</v>
@@ -6305,25 +6305,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>144.0153224630501</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K27" t="n">
-        <v>474.5240650264088</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L27" t="n">
-        <v>965.2563978701601</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M27" t="n">
-        <v>965.2563978701601</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N27" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.8714428665047</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6411,25 +6411,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2255.15869195203</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.479909666413</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.5199076967444</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507198</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L29" t="n">
         <v>1462.494387944176</v>
@@ -6484,7 +6484,7 @@
         <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6551,13 +6551,13 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1654.75575956269</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="N30" t="n">
-        <v>2276.851722962027</v>
+        <v>1684.833368709899</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>2231.709843710093</v>
       </c>
       <c r="P30" t="n">
         <v>2553.812354695766</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.9184063975742</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9822234696674</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8655840573316</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9524904749385</v>
+        <v>197.0659819528712</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G31" t="n">
         <v>93.84834815160703</v>
@@ -6633,40 +6633,40 @@
         <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931021</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946051</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782255</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.41249933569</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294192</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033122</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.734294053952</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.658080368679</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.973592162792</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.556422125831</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.566871227814</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.566871227814</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507198</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384016</v>
       </c>
       <c r="L32" t="n">
         <v>1462.494387944176</v>
@@ -6712,7 +6712,7 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O32" t="n">
         <v>3654.445485610258</v>
@@ -6779,25 +6779,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>241.4963299034529</v>
+        <v>198.8209117892287</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668117</v>
+        <v>198.8209117892287</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310563</v>
+        <v>689.55324463298</v>
       </c>
       <c r="M33" t="n">
-        <v>1654.75575956269</v>
+        <v>1281.571598885108</v>
       </c>
       <c r="N33" t="n">
-        <v>2276.851722962027</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.812354695766</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890959</v>
@@ -6925,19 +6925,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
         <v>842.9746074384018</v>
@@ -6949,22 +6949,22 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
@@ -6973,7 +6973,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
         <v>3468.466124132384</v>
@@ -6982,7 +6982,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
         <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>1062.737405310563</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M36" t="n">
-        <v>1654.75575956269</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N36" t="n">
-        <v>2276.851722962027</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.812354695766</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P36" t="n">
         <v>2553.812354695766</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>495.095714947596</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196891</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196932</v>
+        <v>176.0428926073534</v>
       </c>
       <c r="E37" t="n">
-        <v>326.1595320196932</v>
+        <v>176.0428926073534</v>
       </c>
       <c r="F37" t="n">
-        <v>326.1595320196932</v>
+        <v>176.0428926073534</v>
       </c>
       <c r="G37" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
@@ -7101,46 +7101,46 @@
         <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948589</v>
+        <v>820.221016094855</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931021</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946051</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782255</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.41249933569</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294192</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033122</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747504</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062231</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856344</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819383</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213658</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778357</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294992</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234026</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.861033895493</v>
@@ -7229,61 +7229,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668096</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310559</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.755759562684</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N39" t="n">
-        <v>2276.851722962018</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O39" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
         <v>2016.877442379908</v>
@@ -7295,7 +7295,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
         <v>1111.876178449477</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149475921</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>326.1595320196852</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D40" t="n">
-        <v>176.0428926073495</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E40" t="n">
-        <v>176.0428926073495</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F40" t="n">
-        <v>176.0428926073495</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160706</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062227</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.94347985634</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819379</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>897.536758921362</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778318</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7399,46 +7399,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287892195</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294992</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234026</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
@@ -7466,61 +7466,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>142.6767696327952</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>142.6767696327952</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>142.6767696327952</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849206</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284254</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284447</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
         <v>2016.877442379908</v>
@@ -7532,7 +7532,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.876178449477</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.8252074365082</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C43" t="n">
-        <v>549.8252074365082</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D43" t="n">
-        <v>549.8252074365082</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E43" t="n">
-        <v>549.8252074365082</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F43" t="n">
-        <v>402.9352599385979</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131767</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294188</v>
+        <v>2421.777790063305</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033118</v>
+        <v>2238.607599802235</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.7041817475</v>
+        <v>2018.928817516617</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062227</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.94347985634</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819379</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X43" t="n">
-        <v>897.536758921362</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778318</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160774</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234026</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,61 +7703,61 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L45" t="n">
-        <v>584.5806809953565</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M45" t="n">
-        <v>1176.599035247482</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N45" t="n">
-        <v>1798.694998646816</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>2345.571473647008</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
         <v>2016.877442379908</v>
@@ -7769,7 +7769,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.876178449477</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.9550599890908</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C46" t="n">
-        <v>394.018877061184</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6513892319105</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7382956495174</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160706</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160706</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.487313103726</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1482.802824897839</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1193.385654860878</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>965.3961039628607</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.6035248193306</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K11" t="n">
-        <v>51.31264782909096</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>51.31264782909187</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>51.31264782909193</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.31264782909085</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O32" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>51.31264782909193</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>51.31264782911217</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>51.31264782911234</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>51.31264782911217</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>78.67227416506675</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>84.16945386597398</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440903</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>90.63179579304088</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>90.63179579304079</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>132.2817966595327</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>80.97502887069287</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.80457674440903</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>76.00797063971532</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I28" t="n">
         <v>81.80457674440903</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>76.00797063971532</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.23559055967972</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>157.4398111833836</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>84.16945386597806</v>
       </c>
       <c r="H37" t="n">
-        <v>76.00797063971557</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440903</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>84.16945386598191</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.453989791954</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.18219756402691</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>59.62238941141796</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>143.3016600672316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>135.986774308428</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299412</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>791500.2956299409</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>791500.2956299408</v>
+        <v>791500.295629941</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299409</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>791500.295629941</v>
+        <v>791500.2956299412</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>625179.3072668831</v>
+        <v>625179.3072668833</v>
       </c>
       <c r="F2" t="n">
-        <v>625179.3072668833</v>
+        <v>625179.3072668834</v>
       </c>
       <c r="G2" t="n">
         <v>625179.3072668833</v>
       </c>
       <c r="H2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625179.3072668834</v>
+      </c>
+      <c r="J2" t="n">
         <v>625179.3072668833</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625179.3072668834</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625179.3072668832</v>
+      </c>
+      <c r="N2" t="n">
         <v>625179.3072668833</v>
       </c>
-      <c r="J2" t="n">
+      <c r="O2" t="n">
         <v>625179.3072668832</v>
       </c>
-      <c r="K2" t="n">
-        <v>625179.3072668831</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625179.3072668832</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>625179.3072668833</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625179.3072668831</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625179.3072668829</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625179.307266883</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901373</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.158599498351881e-09</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855116</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855165</v>
+        <v>5781.971894855151</v>
       </c>
       <c r="G4" t="n">
         <v>5781.971894855114</v>
       </c>
       <c r="H4" t="n">
+        <v>5781.971894855128</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="K4" t="n">
         <v>5781.971894855114</v>
       </c>
-      <c r="I4" t="n">
-        <v>5781.971894855129</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>5781.971894855116</v>
+      </c>
+      <c r="M4" t="n">
         <v>5781.971894855114</v>
       </c>
-      <c r="K4" t="n">
-        <v>5781.971894855064</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5781.971894855118</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5781.97189485509</v>
-      </c>
       <c r="N4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855152</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855414</v>
+        <v>5781.971894855114</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855411</v>
+        <v>5781.971894855114</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-237584.0915608658</v>
+        <v>-237584.0915608657</v>
       </c>
       <c r="C6" t="n">
-        <v>352383.7876536789</v>
+        <v>352383.7876536784</v>
       </c>
       <c r="D6" t="n">
-        <v>352383.7876536784</v>
+        <v>352383.7876536788</v>
       </c>
       <c r="E6" t="n">
-        <v>-418401.3393583659</v>
+        <v>-418078.2665215869</v>
       </c>
       <c r="F6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="G6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="H6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329253</v>
       </c>
       <c r="I6" t="n">
-        <v>518108.3260961465</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="J6" t="n">
-        <v>341685.1069035535</v>
+        <v>342008.1797403325</v>
       </c>
       <c r="K6" t="n">
-        <v>518108.3260961464</v>
+        <v>518431.3989329253</v>
       </c>
       <c r="L6" t="n">
-        <v>518108.3260961464</v>
+        <v>518431.3989329255</v>
       </c>
       <c r="M6" t="n">
-        <v>393801.1147060093</v>
+        <v>394124.187542788</v>
       </c>
       <c r="N6" t="n">
-        <v>518108.3260961489</v>
+        <v>518431.3989329254</v>
       </c>
       <c r="O6" t="n">
-        <v>518108.3260961458</v>
+        <v>518431.3989329253</v>
       </c>
       <c r="P6" t="n">
-        <v>518108.326096146</v>
+        <v>518431.3989329254</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26773,13 +26773,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.004452048579918e-12</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>232.8879508820752</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>105.3448503555367</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>168.1531355799262</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>168.8276855108789</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>45.56908394204152</v>
+        <v>12.42908554841739</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,10 +27830,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="V7" t="n">
-        <v>242.3472027101784</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>344.1643037444446</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>160.0021078858324</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,13 +27903,13 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>1.882105749397255</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28280,7 +28280,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.963371529042268e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -29705,7 +29705,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-4.938527139227503e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31840,10 +31840,10 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>348.1857632660258</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
         <v>634.2436048745724</v>
@@ -31855,13 +31855,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>180.8424455441211</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,25 +32080,25 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>199.0463877591108</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>439.1579551075602</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>333.2691884317027</v>
+        <v>420.7661933823242</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426204</v>
@@ -32335,7 +32335,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32554,10 +32554,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>187.8760176396507</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M21" t="n">
         <v>740.1323715504301</v>
@@ -32566,13 +32566,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>571.4938338238237</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,7 +32791,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745724</v>
@@ -32800,13 +32800,13 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>164.214510350927</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>256.8217267553756</v>
       </c>
       <c r="Q24" t="n">
         <v>372.8719498286952</v>
@@ -33025,16 +33025,16 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>177.5113380923668</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927637</v>
@@ -33046,7 +33046,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33271,16 +33271,16 @@
         <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927637</v>
       </c>
       <c r="O30" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>459.3304791170305</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>275.9770021735818</v>
+        <v>232.8705192299209</v>
       </c>
       <c r="K33" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745724</v>
@@ -33514,13 +33514,13 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>422.3544583169088</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33742,7 +33742,7 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504301</v>
@@ -33751,10 +33751,10 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>422.3544583169088</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>471.688653684821</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>189.464282574245</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>176.1592645264527</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426184</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.364970687405</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830408</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088182</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34453,34 +34453,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745706</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>344.3187317060057</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862144</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548561</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860856</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551966</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K8" t="n">
         <v>297.2230414343419</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,10 +35263,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K11" t="n">
-        <v>525.6867728671534</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
         <v>625.777556066439</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>210.3443242916669</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
         <v>495.6892250946982</v>
@@ -35503,13 +35503,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>46.86803812979091</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883395</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380625</v>
@@ -35667,7 +35667,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R14" t="n">
         <v>127.3573607845841</v>
@@ -35728,25 +35728,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>61.20494878475177</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>297.0239211855419</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
         <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
         <v>728.287436302058</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>194.7148086518285</v>
+        <v>282.21181360245</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
         <v>552.400479798176</v>
@@ -35983,7 +35983,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>333.631713989812</v>
       </c>
       <c r="K20" t="n">
         <v>474.3741250380625</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>49.32163785977649</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M21" t="n">
         <v>597.9983376284117</v>
@@ -36214,13 +36214,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>428.8975893793793</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>779.60008413115</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O23" t="n">
         <v>689.7596327870084</v>
@@ -36439,7 +36439,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946982</v>
@@ -36448,13 +36448,13 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>32.87279826759372</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>122.8473193410454</v>
       </c>
       <c r="Q24" t="n">
         <v>232.8901757426737</v>
@@ -36603,7 +36603,7 @@
         <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N26" t="n">
         <v>744.7323009263698</v>
@@ -36615,7 +36615,7 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
         <v>127.3573607845841</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>50.67371142570007</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094305</v>
@@ -36694,7 +36694,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36852,10 +36852,10 @@
         <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094305</v>
       </c>
       <c r="O30" t="n">
-        <v>279.7582138724644</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>325.3560717027003</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209122</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
         <v>370.7297545606359</v>
@@ -37080,10 +37080,10 @@
         <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O32" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
         <v>553.8443926134828</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>149.1393755069151</v>
+        <v>106.0328925632542</v>
       </c>
       <c r="K33" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946982</v>
@@ -37162,13 +37162,13 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>279.7582138724644</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>796.0449487554617</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
         <v>689.7596327870084</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284117</v>
@@ -37399,10 +37399,10 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>279.7582138724644</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243742</v>
       </c>
       <c r="M37" t="n">
         <v>423.4642343883427</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>677.0902038955487</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845831</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>333.847214710462</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946964</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>46.86803812980056</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>525.6867728671726</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020552</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845831</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>49.32163785978599</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981739</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664365</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>779.6000841311674</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>744.7323009263669</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845831</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946964</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981739</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>210.3443242916754</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243769</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
